--- a/medicine/Enfance/Les_Hortensias_maudits/Les_Hortensias_maudits.xlsx
+++ b/medicine/Enfance/Les_Hortensias_maudits/Les_Hortensias_maudits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Hortensias maudits (titre en italien : Le Ortensie maledette) est un roman d'Edward Jones de la série « Le Trio de la Tamise », paru en 1976 en Italie et publié en France dans la Bibliothèque verte en 1981 (avec une traduction de Madeleine Juffé et des illustrations de François Dermaut)  (ISBN 978-2010078897).
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Trio de la Tamise (Dave, Ted et Cathy) reçoit à Londres Raffaelo Lombardi, le correspondant de leur ami Olivier Anderson, à qui ils font visiter la capitale britannique. Tout se passe bien. Quelque temps plus tard, Raffaelo Lombardi leur propose de les recevoir à son tour en Italie.
 Chose proposée, chose faite. Les trois jeunes gens vont en Italie. Le jour même de leur arrivée, un pot d'hortensias bleus est placé par une main inconnue dans leur cabine de plage. Dave veut admirer les fleurs et est mordu par une vipère. Il ne doit la vie sauve que grâce à l'action rapide de ses amis.
@@ -547,7 +561,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hortensias</t>
         </is>
